--- a/program/results/result_v024_exp/T1900_0_digital/emi_bias.xlsx
+++ b/program/results/result_v024_exp/T1900_0_digital/emi_bias.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,818 +423,818 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2709411159424836</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1282,99 +1282,99 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2020627657172971</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -1446,84 +1446,84 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1544,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1559,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1935045951275692</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1601,84 +1601,84 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1750,75 +1750,75 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2000368657294969</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -1914,81 +1914,81 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2048,93 +2048,93 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.999997805674059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2152,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2176,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -2206,69 +2206,69 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.999997805674059</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
@@ -2376,63 +2376,63 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.5424194083446869</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2516,57 +2516,57 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -2686,39 +2686,39 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2769,25 +2769,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -2838,42 +2838,42 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2987,42 +2987,42 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3058,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1950451456860975</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3073,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.1950451456860975</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -3142,36 +3142,36 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -3279,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3297,33 +3297,33 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -3449,42 +3449,42 @@
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -3592,39 +3592,39 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -3756,30 +3756,30 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3812,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -3905,30 +3905,30 @@
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="AK24" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4060,39 +4060,39 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -4122,22 +4122,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -4155,22 +4155,22 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -4200,57 +4200,57 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2709411159424836</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2020627657172971</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1935045951275692</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2000368657294969</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.5424194083446869</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>0.5424194083446869</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -4346,57 +4346,57 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.2000368657294969</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.1935045951275692</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.2020627657172971</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.2709411159424836</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -4426,22 +4426,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4459,22 +4459,22 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
@@ -4504,39 +4504,39 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -4668,30 +4668,30 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4724,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9418638143252891</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -4817,30 +4817,30 @@
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4849,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.1954123878286637</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -4972,39 +4972,39 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1927693672188061</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -5112,42 +5112,42 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -5207,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>3.140154802849793e-12</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
@@ -5273,33 +5273,33 @@
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -5425,36 +5425,36 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1950451456860975</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -5505,25 +5505,25 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>0.5133107518405178</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>0.02408290681249692</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -5532,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.1950451456860975</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -5574,42 +5574,42 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -5723,42 +5723,42 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -5770,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -5809,25 +5809,25 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1959579671750803</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>0.5270124230010667</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.1931321799594884</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
         <v>0</v>
@@ -5863,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
         <v>0</v>
@@ -5878,39 +5878,39 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
@@ -6030,57 +6030,57 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>0.5424194083446869</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -6164,63 +6164,63 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="AP38" t="n">
         <v>0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -6271,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.1920879604940512</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -6328,69 +6328,69 @@
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.999997805674059</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -6408,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -6432,19 +6432,19 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.319295026372325</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.1968082701147882</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.1754383780617468</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -6462,93 +6462,93 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.999997805674059</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.1448846759063765</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -6608,81 +6608,81 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.9999968196425089</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.2515690534103594</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -6697,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.2000368657294969</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.1611645574027432</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
         <v>0</v>
@@ -6778,75 +6778,75 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -6888,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.2027297934842484</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1749360630348805</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.9999947619119727</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -6918,84 +6918,84 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.289070067305877</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.1935045951275692</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.192495573131865</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.1964934972001182</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.199559618876578</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.1891808904356144</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -7073,84 +7073,84 @@
         <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.2020627657172971</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1581909629389795</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.2246556113606135</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.2587188221690738</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
         <v>0</v>
@@ -7222,99 +7222,99 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -7362,663 +7362,663 @@
         <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.2709411159424836</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.2284400371264111</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.2258885912148203</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.9999993851493745</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.1824135123015217</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.1957259023994291</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
